--- a/analisa jml_mhs_lulus_s1.xlsx
+++ b/analisa jml_mhs_lulus_s1.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mhs_lulus_s1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="mhs_lulus_s2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
   <si>
     <t>Fisika S1</t>
   </si>
@@ -166,6 +166,93 @@
   </si>
   <si>
     <t>group by substring(a_mhs.NRP, 1,2)+substring(a_mhs.NRP, 5,3), substring(mhs.NRP, 1,2)+substring(mhs.NRP, 5,3), mhs.SEX, prodi.NAMAPROGRAM</t>
+  </si>
+  <si>
+    <t>Fisika S2</t>
+  </si>
+  <si>
+    <t>Matematika S2</t>
+  </si>
+  <si>
+    <t>Statistika S2</t>
+  </si>
+  <si>
+    <t>Kimia S2</t>
+  </si>
+  <si>
+    <t>T. Mesin S2</t>
+  </si>
+  <si>
+    <t>T. Fisika S2</t>
+  </si>
+  <si>
+    <t>S2 T Material dan Metalurgi</t>
+  </si>
+  <si>
+    <t>Arsitektur S2 Pemukim. Kota</t>
+  </si>
+  <si>
+    <t>T. Geomatika S2</t>
+  </si>
+  <si>
+    <t>T. Perkapalan S2 Trans. Kelaut</t>
+  </si>
+  <si>
+    <t>T. Informatika S2</t>
+  </si>
+  <si>
+    <t>MMT S2 Manaj. Industri</t>
+  </si>
+  <si>
+    <t>T. Elektro S2</t>
+  </si>
+  <si>
+    <t>T. Kimia S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. Sipil S2 </t>
+  </si>
+  <si>
+    <t>T. Sipil S2</t>
+  </si>
+  <si>
+    <t>Jumlah Lulusan S2- Mudji Sukur</t>
+  </si>
+  <si>
+    <t>T. Lingkungan S2</t>
+  </si>
+  <si>
+    <t>Arsitektur S2</t>
+  </si>
+  <si>
+    <t>T. Industri</t>
+  </si>
+  <si>
+    <t>T. Industr</t>
+  </si>
+  <si>
+    <t>Seliish</t>
+  </si>
+  <si>
+    <t>Mudji Sukur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from dbo.MAHASISWA mhs, dbo.AKTIVITASMHS a_mhs, dbo.PROGRAMSTUDI prodi </t>
+  </si>
+  <si>
+    <t>where a_mhs.NRP = mhs.NRP and substring(a_mhs.NRP, 7,1) != '0' and substring(mhs.NRP, 7,1) != '0'</t>
+  </si>
+  <si>
+    <t>and substring(a_mhs.NRP,5,1) = '2' and substring(mhs.NRP,5,1) = '2' and a_mhs.PERIODESEM in ('20142','20151') and a_mhs.STATUSMAHASISWA = 'L'</t>
+  </si>
+  <si>
+    <t>Data_its</t>
+  </si>
+  <si>
+    <t>where t.Kode_jenjang_pendidikan = '1' and t.tahun_pelaporan = '2015'</t>
+  </si>
+  <si>
+    <t>Jumlah Lulusan S2- Data its</t>
   </si>
 </sst>
 </file>
@@ -188,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +286,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,11 +383,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -306,9 +399,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,12 +1732,837 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>11201</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8">
+        <f>D2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>11201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F35" si="0">D3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>12201</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>12201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>13201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>13201</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>14201</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>14201</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>21201</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>21201</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>22201</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1">
+        <v>84</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>22201</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1">
+        <v>51</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>23201</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>23201</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>24201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>24201</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>25201</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>25201</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>27201</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>27201</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>31201</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1">
+        <v>53</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>31201</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1">
+        <v>32</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>32201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>32201</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1">
+        <v>49</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>33201</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>33201</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1">
+        <v>32</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>35201</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>35201</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>41202</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>29</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>41202</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>51201</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1">
+        <v>47</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>51201</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1">
+        <v>27</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>91201</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>90</v>
+      </c>
+      <c r="E34" s="1">
+        <v>90</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>91201</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2">
+        <v>33</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/analisa jml_mhs_lulus_s1.xlsx
+++ b/analisa jml_mhs_lulus_s1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mhs_lulus_s1" sheetId="1" r:id="rId1"/>
     <sheet name="mhs_lulus_s2" sheetId="2" r:id="rId2"/>
+    <sheet name="mhs_lulus_s3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="65">
   <si>
     <t>Fisika S1</t>
   </si>
@@ -120,54 +121,6 @@
     <t>Nama Prodi</t>
   </si>
   <si>
-    <t>Query:</t>
-  </si>
-  <si>
-    <t>Mudji sukur</t>
-  </si>
-  <si>
-    <t>Data ITS</t>
-  </si>
-  <si>
-    <t>select distinct p.kode_its, p.Nama_program_studi as nama_prodi , sum(t.jml_l) as L , sum(t.jml_p) as P</t>
-  </si>
-  <si>
-    <t>from dbo.taga_mhs_mutasi_lulusan_jk t</t>
-  </si>
-  <si>
-    <t>join dbo.tmst_program_studi p on t.kode_program_studi = p.Kode_program_studi</t>
-  </si>
-  <si>
-    <t>where t.Kode_jenjang_pendidikan = '2' and t.tahun_pelaporan = '2015'</t>
-  </si>
-  <si>
-    <t>and p.Kode_fakultas = t.kode_fakultas and t.semester_pelaporan in ('1','2')</t>
-  </si>
-  <si>
-    <t>group by p.kode_its, p.Nama_program_studi</t>
-  </si>
-  <si>
-    <t>order by p.kode_its</t>
-  </si>
-  <si>
-    <t>select distinct substring(a_mhs.NRP,1,2)+substring(a_mhs.NRP,5,3) as kode_prodi , prodi.NAMAPROGRAM as nama_prodi, mhs.SEX as jekel, count(*) as jumlah_lulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from dbo.MAHASISWA mhs, dbo.AKTIVITASMHS a_mhs, dbo.PROGRAMSTUDI as prodi </t>
-  </si>
-  <si>
-    <t>where a_mhs.NRP = mhs.NRP and substring(a_mhs.NRP, 7,1) != '8' and substring(mhs.NRP, 7,1) != '8'</t>
-  </si>
-  <si>
-    <t>and substring(a_mhs.NRP,5,1) = '1' and substring(mhs.NRP,5,1) = '1' and a_mhs.PERIODESEM in ('20142','20151') and a_mhs.STATUSMAHASISWA = 'L'</t>
-  </si>
-  <si>
-    <t>and substring(a_mhs.NRP,1,2)+substring(a_mhs.NRP,5,3) = prodi.KODEPROGRAM and substring(mhs.NRP,1,2)+substring(mhs.NRP,5,3) = prodi.KODEPROGRAM</t>
-  </si>
-  <si>
-    <t>group by substring(a_mhs.NRP, 1,2)+substring(a_mhs.NRP, 5,3), substring(mhs.NRP, 1,2)+substring(mhs.NRP, 5,3), mhs.SEX, prodi.NAMAPROGRAM</t>
-  </si>
-  <si>
     <t>Fisika S2</t>
   </si>
   <si>
@@ -189,9 +142,6 @@
     <t>S2 T Material dan Metalurgi</t>
   </si>
   <si>
-    <t>Arsitektur S2 Pemukim. Kota</t>
-  </si>
-  <si>
     <t>T. Geomatika S2</t>
   </si>
   <si>
@@ -228,31 +178,49 @@
     <t>T. Industri</t>
   </si>
   <si>
-    <t>T. Industr</t>
-  </si>
-  <si>
     <t>Seliish</t>
   </si>
   <si>
-    <t>Mudji Sukur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from dbo.MAHASISWA mhs, dbo.AKTIVITASMHS a_mhs, dbo.PROGRAMSTUDI prodi </t>
-  </si>
-  <si>
-    <t>where a_mhs.NRP = mhs.NRP and substring(a_mhs.NRP, 7,1) != '0' and substring(mhs.NRP, 7,1) != '0'</t>
-  </si>
-  <si>
-    <t>and substring(a_mhs.NRP,5,1) = '2' and substring(mhs.NRP,5,1) = '2' and a_mhs.PERIODESEM in ('20142','20151') and a_mhs.STATUSMAHASISWA = 'L'</t>
-  </si>
-  <si>
-    <t>Data_its</t>
-  </si>
-  <si>
-    <t>where t.Kode_jenjang_pendidikan = '1' and t.tahun_pelaporan = '2015'</t>
-  </si>
-  <si>
     <t>Jumlah Lulusan S2- Data its</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsitektur S2 </t>
+  </si>
+  <si>
+    <t>ILMU FISIKA S3</t>
+  </si>
+  <si>
+    <t>ILMU STATISTIK S3</t>
+  </si>
+  <si>
+    <t>ILMU KIMIA S3</t>
+  </si>
+  <si>
+    <t>ILMU TEKNIK ELEKTRO S3</t>
+  </si>
+  <si>
+    <t>ILMU TEKNIK KIMIA S3</t>
+  </si>
+  <si>
+    <t>TEKNIK INDUSTRI S3</t>
+  </si>
+  <si>
+    <t>ILMU TEKNIK SIPIL S3</t>
+  </si>
+  <si>
+    <t>ILMU ARSITEKTUR S3</t>
+  </si>
+  <si>
+    <t>TEKNIK LINGKUNGAN S3</t>
+  </si>
+  <si>
+    <t>ILMU TEKNIK KELAUTAN  S3</t>
+  </si>
+  <si>
+    <t>Jumlah Lulus S3 - MudjiSukur</t>
+  </si>
+  <si>
+    <t>Jumlah lulus S3 - Data ITS</t>
   </si>
 </sst>
 </file>
@@ -294,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -382,13 +350,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -408,6 +456,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
@@ -690,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:G55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,84 +1703,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1732,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,13 +1738,13 @@
         <v>25</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,7 +1752,7 @@
         <v>11201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1795,7 +1773,7 @@
         <v>11201</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1816,7 +1794,7 @@
         <v>12201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1837,7 +1815,7 @@
         <v>12201</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1858,7 +1836,7 @@
         <v>13201</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -1879,7 +1857,7 @@
         <v>13201</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1900,7 +1878,7 @@
         <v>14201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -1921,7 +1899,7 @@
         <v>14201</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1942,7 +1920,7 @@
         <v>21201</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -1963,7 +1941,7 @@
         <v>21201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1984,7 +1962,7 @@
         <v>22201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
@@ -2005,7 +1983,7 @@
         <v>22201</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -2026,7 +2004,7 @@
         <v>23201</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -2047,7 +2025,7 @@
         <v>23201</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -2068,7 +2046,7 @@
         <v>24201</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2089,7 +2067,7 @@
         <v>24201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -2110,7 +2088,7 @@
         <v>25201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -2131,7 +2109,7 @@
         <v>25201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -2152,7 +2130,7 @@
         <v>27201</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
@@ -2173,7 +2151,7 @@
         <v>27201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -2194,7 +2172,7 @@
         <v>31201</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -2215,7 +2193,7 @@
         <v>31201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -2236,7 +2214,7 @@
         <v>32201</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -2245,11 +2223,11 @@
         <v>23</v>
       </c>
       <c r="E24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,7 +2235,7 @@
         <v>32201</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -2266,11 +2244,11 @@
         <v>50</v>
       </c>
       <c r="E25" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2278,7 +2256,7 @@
         <v>33201</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
@@ -2299,7 +2277,7 @@
         <v>33201</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -2320,7 +2298,7 @@
         <v>35201</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
@@ -2341,7 +2319,7 @@
         <v>35201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -2362,7 +2340,7 @@
         <v>41202</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
@@ -2383,7 +2361,7 @@
         <v>41202</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -2404,7 +2382,7 @@
         <v>51201</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1</v>
@@ -2425,7 +2403,7 @@
         <v>51201</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -2446,7 +2424,7 @@
         <v>91201</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
@@ -2467,7 +2445,7 @@
         <v>91201</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -2481,88 +2459,477 @@
       <c r="F35" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>11301</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16">
+        <f>D2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>11301</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" ref="F3:F21" si="0">D3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>13301</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>13301</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>14301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>14301</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>22301</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>22301</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>23301</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>23301</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>25301</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>25301</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>31301</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>31301</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>32301</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>32301</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>33301</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>33301</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>41301</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>41301</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analisa jml_mhs_lulus_s1.xlsx
+++ b/analisa jml_mhs_lulus_s1.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\dataits_vs_mudji\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mhs_lulus_s1" sheetId="1" r:id="rId1"/>
     <sheet name="mhs_lulus_s2" sheetId="2" r:id="rId2"/>
     <sheet name="mhs_lulus_s3" sheetId="3" r:id="rId3"/>
+    <sheet name="Rincian data hilang" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
   <si>
     <t>Fisika S1</t>
   </si>
@@ -221,13 +217,40 @@
   </si>
   <si>
     <t>Jumlah lulus S3 - Data ITS</t>
+  </si>
+  <si>
+    <t>tidak tercatat pada pdt</t>
+  </si>
+  <si>
+    <t>Penyebab selisih lain</t>
+  </si>
+  <si>
+    <t>2. Perbedaan laporan angka pdt dengan data.its , tidak ada data missing data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Tidak Tercatat </t>
+  </si>
+  <si>
+    <t>bagian kesalahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2 Teknik Material Metalurgi </t>
+  </si>
+  <si>
+    <t>S3 Ilmu Arsitektur, S3 Teknik Lingkungan</t>
+  </si>
+  <si>
+    <t>Penyebab missing data</t>
+  </si>
+  <si>
+    <t>NRP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +265,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +292,14 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -430,13 +467,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -464,6 +516,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
@@ -526,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,7 +616,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,6 +1778,7 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2472,7 +2528,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,4 +2988,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="25">
+        <v>3210301003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/analisa jml_mhs_lulus_s1.xlsx
+++ b/analisa jml_mhs_lulus_s1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\dataits_vs_mudji\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="2"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="mhs_lulus_s3" sheetId="3" r:id="rId3"/>
     <sheet name="Rincian data hilang" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="100">
   <si>
     <t>Fisika S1</t>
   </si>
@@ -244,6 +249,84 @@
   </si>
   <si>
     <t>NRP</t>
+  </si>
+  <si>
+    <t>Query:</t>
+  </si>
+  <si>
+    <t>Mudjikur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct substring(a_mhs.NRP,1,2)+substring(a_mhs.NRP,5,3) as kode_prodi , prodi.NAMAPROGRAM as nama_prodi, mhs.SEX as jekel, count(*) as jumlah_lulus               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from dbo.MAHASISWA mhs, dbo.AKTIVITASMHS a_mhs, dbo.PROGRAMSTUDI prodi               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where a_mhs.NRP = mhs.NRP and substring(a_mhs.NRP, 7,1) != '8' and substring(mhs.NRP, 7,1) != '8'               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and substring(a_mhs.NRP,5,1) = '1' and substring(mhs.NRP,5,1) = '1' and a_mhs.PERIODESEM in ('20142','20151') and a_mhs.STATUSMAHASISWA = 'L'               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and substring(a_mhs.NRP,1,2)+substring(a_mhs.NRP,5,3) = prodi.KODEPROGRAM and substring(mhs.NRP,1,2)+substring(mhs.NRP,5,3) = prodi.KODEPROGRAM             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">group by substring(a_mhs.NRP, 1,2)+substring(a_mhs.NRP, 5,3), substring(mhs.NRP, 1,2)+substring(mhs.NRP, 5,3), mhs.SEX, prodi.NAMAPROGRAM  </t>
+  </si>
+  <si>
+    <t>Data ITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct p.kode_its, p.Nama_program_studi as nama_prodi , sum(t.jml_l) as L , sum(t.jml_p) as P          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from dbo.taga_mhs_mutasi_lulusan_jk t           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">join dbo.tmst_program_studi p on t.kode_program_studi = p.Kode_program_studi            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where t.Kode_jenjang_pendidikan = '2' and t.tahun_pelaporan = '2015'            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and p.Kode_fakultas = t.kode_fakultas and t.semester_pelaporan in ('1','2')         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">group by p.kode_its, p.Nama_program_studi           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order by p.kode_its       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from dbo.MAHASISWA mhs, dbo.AKTIVITASMHS a_mhs, dbo.PROGRAMSTUDI prodi              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where a_mhs.NRP = mhs.NRP and substring(a_mhs.NRP, 7,1) != '0' and substring(mhs.NRP, 7,1) != '0'               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and substring(a_mhs.NRP,5,1) = '2' and substring(mhs.NRP,5,1) = '2' and a_mhs.PERIODESEM in ('20142','20151') and a_mhs.STATUSMAHASISWA = 'L'               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">group by substring(a_mhs.NRP, 1,2)+substring(a_mhs.NRP, 5,3), substring(mhs.NRP, 1,2)+substring(mhs.NRP, 5,3), mhs.SEX, prodi.NAMAPROGRAM   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where t.Kode_jenjang_pendidikan = '1' and t.tahun_pelaporan = '2015'            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order by p.kode_its  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where a_mhs.NRP = mhs.NRP and substring(a_mhs.NRP, 7,1) != '0' and substring(mhs.NRP, 7,1) != '0' and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">substring(a_mhs.NRP,5,1) = '3' and substring(mhs.NRP,5,1) = '3' and a_mhs.PERIODESEM in ('20142','20151') and a_mhs.STATUSMAHASISWA = 'L'               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where t.Kode_jenjang_pendidikan = '0' and t.tahun_pelaporan = '2015'            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order by p.kode_its   </t>
   </si>
 </sst>
 </file>
@@ -793,7 +876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -801,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,6 +1841,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1765,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,6 +2678,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2525,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,6 +3222,84 @@
       <c r="F21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/analisa jml_mhs_lulus_s1.xlsx
+++ b/analisa jml_mhs_lulus_s1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\dataits_vs_mudji\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mhs_lulus_s1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="mhs_lulus_s3" sheetId="3" r:id="rId3"/>
     <sheet name="Rincian data hilang" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="98">
   <si>
     <t>Fisika S1</t>
   </si>
@@ -230,9 +225,6 @@
     <t>Penyebab selisih lain</t>
   </si>
   <si>
-    <t>2. Perbedaan laporan angka pdt dengan data.its , tidak ada data missing data</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Tidak Tercatat </t>
   </si>
   <si>
@@ -240,9 +232,6 @@
   </si>
   <si>
     <t xml:space="preserve">S2 Teknik Material Metalurgi </t>
-  </si>
-  <si>
-    <t>S3 Ilmu Arsitektur, S3 Teknik Lingkungan</t>
   </si>
   <si>
     <t>Penyebab missing data</t>
@@ -876,7 +865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1843,80 +1832,80 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -2680,80 +2669,80 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2766,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,11 +3101,11 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,11 +3122,11 @@
         <v>7</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3175,11 +3164,11 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,80 +3215,80 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3309,10 +3298,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,10 +3312,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3337,28 +3326,26 @@
         <v>3210301003</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25">
+        <v>3309301004</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
